--- a/RUDN/Importance/Varible_muatal_reg_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Central America.xlsx
@@ -58,15 +58,15 @@
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
     <t>Population ages 00-14 (% of total)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
@@ -181,12 +181,12 @@
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
@@ -226,12 +226,12 @@
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
@@ -247,57 +247,57 @@
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
@@ -340,42 +340,42 @@
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
@@ -397,12 +397,12 @@
     <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -412,33 +412,33 @@
     <t>Number of under-five deaths</t>
   </si>
   <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
     <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
@@ -448,18 +448,18 @@
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
@@ -520,22 +520,25 @@
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, total</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, total</t>
+    <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
     <t>Age population, age 21, male, interpolated</t>
@@ -562,15 +565,15 @@
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Labor force, total</t>
   </si>
   <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
@@ -580,27 +583,24 @@
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -613,63 +613,66 @@
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
+    <t>Female population 25-29</t>
   </si>
   <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
   </si>
   <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
+    <t>Female population 50-54</t>
   </si>
   <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
@@ -691,156 +694,153 @@
     <t>Male population 65-69</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -883,12 +883,12 @@
     <t>Female population 80+</t>
   </si>
   <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
@@ -928,15 +928,15 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -958,6 +958,9 @@
     <t>Informal employment, female (% of total non-agricultural employment)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
     <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
@@ -967,30 +970,27 @@
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, tertiary, female (%)</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
     <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
@@ -1258,18 +1258,18 @@
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
@@ -1324,12 +1324,12 @@
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
@@ -1354,13 +1354,13 @@
     <t>People using safely managed drinking water services (% of population)</t>
   </si>
   <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.486865897503717</v>
+        <v>1.492245934133753</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1873,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.334880666986766</v>
+        <v>1.33563803320652</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1897,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308741137771742</v>
+        <v>1.31222403974356</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1913,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.308377885897406</v>
+        <v>1.308741137771742</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.261175972558388</v>
+        <v>1.265346801729217</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.149515668654185</v>
+        <v>1.151979153490445</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.144073874997944</v>
+        <v>1.149515668654185</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.142491241210467</v>
+        <v>1.144073874997944</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.142466606043741</v>
+        <v>1.142491241210467</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.140438634450001</v>
+        <v>1.142466606043741</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.128950038191941</v>
+        <v>1.129892204999492</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.117240533368078</v>
+        <v>1.120009619823803</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2217,7 +2217,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.114139318725346</v>
+        <v>1.115423316538382</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.105542490411841</v>
+        <v>1.115138008405514</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.104876259397042</v>
+        <v>1.105542490411841</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2281,7 +2281,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.073485700325288</v>
+        <v>1.070559393050392</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2289,7 +2289,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.070559393050392</v>
+        <v>1.07030750832498</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.059069437864816</v>
+        <v>1.059908142429482</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.004106334739811</v>
+        <v>1.014836737474289</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.003511884873072</v>
+        <v>1.004106334739811</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9857094506341015</v>
+        <v>0.9861087708651524</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9768309611241399</v>
+        <v>0.9723664540129664</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2409,7 +2409,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9739392494738315</v>
+        <v>0.9699213581063146</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2417,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9715651719616845</v>
+        <v>0.9699213581063146</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9699213581063146</v>
+        <v>0.9581899264947435</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9699213581063146</v>
+        <v>0.9577402175602012</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9453097072382781</v>
+        <v>0.9473671881802006</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9433314669569794</v>
+        <v>0.9453097072382781</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2489,7 +2489,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.935706443818713</v>
+        <v>0.9335554372923682</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.935269024450593</v>
+        <v>0.9285083000821079</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9153693221050778</v>
+        <v>0.9119050703679314</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2513,7 +2513,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9119050703679314</v>
+        <v>0.9105202048761529</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2521,7 +2521,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9103145707535689</v>
+        <v>0.909061871609619</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.909061871609619</v>
+        <v>0.9087590616259447</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2545,7 +2545,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9017674096996808</v>
+        <v>0.9011263840586552</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8929588611695216</v>
+        <v>0.8892033846199272</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2561,7 +2561,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.8851387159136772</v>
+        <v>0.8770037223928031</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.8574951079100919</v>
+        <v>0.8601478677319696</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8554318742637981</v>
+        <v>0.8564719546385309</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.8525452019969286</v>
+        <v>0.853575421777149</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.8432526257570703</v>
+        <v>0.8441848477229796</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.8403621746695369</v>
+        <v>0.8429238946591084</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2625,7 +2625,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.8390655558343143</v>
+        <v>0.8382575403204164</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2649,7 +2649,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.8273858636298934</v>
+        <v>0.7929852856680086</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.7813736303486862</v>
+        <v>0.7829599921786201</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.7811625304477599</v>
+        <v>0.7813736303486862</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2681,7 +2681,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.779091395477161</v>
+        <v>0.781127082025215</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.7741970873419253</v>
+        <v>0.7664372132231994</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.7674480613494326</v>
+        <v>0.7441491837117438</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.7441491837117438</v>
+        <v>0.7412136478246598</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.7364585985813736</v>
+        <v>0.7357616181595303</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.7357616181595303</v>
+        <v>0.7350849722077473</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.7167360848298783</v>
+        <v>0.7160950591888522</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2793,7 +2793,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.673751183918923</v>
+        <v>0.6739745163355599</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2801,7 +2801,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6725184708740475</v>
+        <v>0.6723554982534479</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2825,7 +2825,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.6543373062289568</v>
+        <v>0.6555642318351871</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.6419420686628265</v>
+        <v>0.6417268623034114</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6417268623034114</v>
+        <v>0.6384341043938668</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.6365644066013907</v>
+        <v>0.6369522200443314</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.6346763301987306</v>
+        <v>0.6351220989090831</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.6248956291358381</v>
+        <v>0.624539503779713</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.6125602259816887</v>
+        <v>0.6115309278070313</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.6115309278070313</v>
+        <v>0.6107240737957196</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2953,7 +2953,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.6107240737957196</v>
+        <v>0.6064292913244707</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.6064292913244707</v>
+        <v>0.6063556247136761</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5547667149213809</v>
+        <v>0.5580099033616075</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5533752887089589</v>
+        <v>0.5547667149213809</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5524936452189899</v>
+        <v>0.5516774083699953</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.551843251008501</v>
+        <v>0.5509223614323482</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5506758131088769</v>
+        <v>0.5485076588926279</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5485076588926279</v>
+        <v>0.5412672348796748</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5358976255206591</v>
+        <v>0.5395935479599805</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5353232483211301</v>
+        <v>0.5358976255206591</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5334745625634558</v>
+        <v>0.5353232483211301</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3201,7 +3201,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5330469396467199</v>
+        <v>0.5334745625634558</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3209,7 +3209,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5308963702535934</v>
+        <v>0.5330469396467199</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5299625131650494</v>
+        <v>0.5308963702535934</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5296688962304854</v>
+        <v>0.5299625131650494</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3233,7 +3233,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5279929228112286</v>
+        <v>0.5296688962304854</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3241,7 +3241,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5247421951245874</v>
+        <v>0.5283775381958442</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5130417113807755</v>
+        <v>0.5173187991646651</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5117853413396161</v>
+        <v>0.5130417113807755</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5112121542459773</v>
+        <v>0.5117853413396161</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5110028667539013</v>
+        <v>0.5112121542459773</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4973483112632648</v>
+        <v>0.5004002258415212</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4962934202780076</v>
+        <v>0.4973483112632648</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4816045292052444</v>
+        <v>0.4791647255133853</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4791647255133853</v>
+        <v>0.4757851115947411</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4789607051267071</v>
+        <v>0.4750708088473226</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4789039128746682</v>
+        <v>0.4673519208471915</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4750708088473226</v>
+        <v>0.4669053731618718</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4673519208471915</v>
+        <v>0.4663123868810566</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.4667682023067621</v>
+        <v>0.4634274506378153</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4663123868810566</v>
+        <v>0.4616671465216822</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4630751607765444</v>
+        <v>0.4610300185476801</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4616671465216822</v>
+        <v>0.4607233176381191</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4610300185476801</v>
+        <v>0.4574835372645274</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4574835372645274</v>
+        <v>0.4561242166524058</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4561307376750059</v>
+        <v>0.4559393128213545</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4561242166524058</v>
+        <v>0.455009941773491</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.455009941773491</v>
+        <v>0.4524855907246543</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4490117249609171</v>
+        <v>0.4497395092319376</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4442907468702799</v>
+        <v>0.4470110102198182</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4423439352389351</v>
+        <v>0.4442907468702799</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4412573910232789</v>
+        <v>0.4423439352389351</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4408056162817438</v>
+        <v>0.4412573910232789</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4388448182558629</v>
+        <v>0.4408056162817438</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4385593467163653</v>
+        <v>0.4388448182558629</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4343138786437257</v>
+        <v>0.4385593467163653</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4306206965602417</v>
+        <v>0.4343138786437257</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4246956282726586</v>
+        <v>0.4235412626420831</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4235412626420831</v>
+        <v>0.4232691701154319</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4222270698079253</v>
+        <v>0.4224530567553106</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4217118572787939</v>
+        <v>0.4222270698079253</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4211650245046226</v>
+        <v>0.4214636674409378</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4202908369297222</v>
+        <v>0.4211650245046226</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.4196636774196125</v>
+        <v>0.4202908369297222</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4192923285325196</v>
+        <v>0.4196636774196125</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4178213622661839</v>
+        <v>0.4192923285325196</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4171993748147351</v>
+        <v>0.4178213622661839</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4167339523457099</v>
+        <v>0.4171993748147351</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4155375066107103</v>
+        <v>0.4167339523457099</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.414420247183805</v>
+        <v>0.4155375066107103</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4136606414921962</v>
+        <v>0.414420247183805</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4133791680163741</v>
+        <v>0.4136606414921962</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4130453567597172</v>
+        <v>0.4133791680163741</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4093214023072134</v>
+        <v>0.4130453567597172</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4090002337946874</v>
+        <v>0.4093214023072134</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4071476403151846</v>
+        <v>0.4067510874632747</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3962412057464988</v>
+        <v>0.3952830780232266</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3952830780232266</v>
+        <v>0.3949534739420297</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3949534739420297</v>
+        <v>0.3942232233153025</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3942232233153025</v>
+        <v>0.3919564734316552</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3941443505556084</v>
+        <v>0.3908744220749778</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3917311667695955</v>
+        <v>0.3900705707196293</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3900705707196293</v>
+        <v>0.3873397580354745</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3873397580354745</v>
+        <v>0.3872798470257677</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3872798470257677</v>
+        <v>0.3866229216864021</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3866229216864021</v>
+        <v>0.3851479798126478</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3851479798126478</v>
+        <v>0.3850533602819131</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3850533602819131</v>
+        <v>0.3847107556383147</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.3847107556383147</v>
+        <v>0.3842060323243639</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3842060323243639</v>
+        <v>0.383579396193475</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.383579396193475</v>
+        <v>0.3830237158762726</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3830237158762726</v>
+        <v>0.382941276309563</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3487251674106182</v>
+        <v>0.3467477642518386</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3462196356640088</v>
+        <v>0.3448100703338306</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3169538652026909</v>
+        <v>0.3170838028326275</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2625721031954065</v>
+        <v>0.2651835649748304</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2606372802183698</v>
+        <v>0.2610064405085839</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2601479607713291</v>
+        <v>0.2606372802183698</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2593206414309388</v>
+        <v>0.2601479607713291</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2592119230275682</v>
+        <v>0.2593206414309388</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2579937052317116</v>
+        <v>0.2592119230275682</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2564462071617013</v>
+        <v>0.2567375824530769</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2492331817676849</v>
+        <v>0.2487524125369152</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.2442173344840946</v>
+        <v>0.2447789664398261</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2019648213898664</v>
+        <v>0.2020331847394796</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1930456472619779</v>
+        <v>0.1929465195855311</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.184987709625446</v>
+        <v>0.1848751010647485</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1773946156739006</v>
+        <v>0.1772680974552772</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1741475483542898</v>
+        <v>0.1738539317145193</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1160521199891256</v>
+        <v>0.1159698009015171</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1159698009015171</v>
+        <v>0.1152599366754046</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.1152599366754046</v>
+        <v>0.1150215403838961</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1150215403838961</v>
+        <v>0.1147826849946028</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5209,7 +5209,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1044989690649045</v>
+        <v>0.1043387126546482</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5273,7 +5273,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.09004088742261751</v>
+        <v>0.08746629096910619</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.08746629096910619</v>
+        <v>0.08707028079347467</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.07708678289207893</v>
+        <v>0.07682512766467053</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5305,7 +5305,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.07687726112620874</v>
+        <v>0.07651364135989835</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5337,7 +5337,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.06734133636407447</v>
+        <v>0.06709318707746381</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5353,7 +5353,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.06234827482506278</v>
+        <v>0.06152867065291456</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5361,7 +5361,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.06152867065291456</v>
+        <v>0.06123634091737085</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5369,7 +5369,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.06123634091737085</v>
+        <v>0.05884567886511549</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5377,7 +5377,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.05810335312574333</v>
+        <v>0.05868165054315844</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5425,7 +5425,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.04451299079745219</v>
+        <v>0.04501583842489598</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5433,7 +5433,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.04167086477530657</v>
+        <v>0.04208344902935424</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5441,7 +5441,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.03602960118000476</v>
+        <v>0.03340132517848216</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5449,7 +5449,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.02918294455481374</v>
+        <v>0.03233578959261973</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5489,7 +5489,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.01274588530468135</v>
+        <v>0.01232428519118001</v>
       </c>
     </row>
     <row r="466" spans="1:2">
